--- a/data_capture/excels/AZUL4_SA_dados.xlsx
+++ b/data_capture/excels/AZUL4_SA_dados.xlsx
@@ -1081,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2017"/>
+  <dimension ref="A1:H2019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -53526,6 +53526,58 @@
         <v>0</v>
       </c>
       <c r="H2017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:8">
+      <c r="A2018" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B2018">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="C2018">
+        <v>1.110000014305115</v>
+      </c>
+      <c r="D2018">
+        <v>1.070000052452087</v>
+      </c>
+      <c r="E2018">
+        <v>1.090000033378601</v>
+      </c>
+      <c r="F2018">
+        <v>39455400</v>
+      </c>
+      <c r="G2018">
+        <v>0</v>
+      </c>
+      <c r="H2018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:8">
+      <c r="A2019" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B2019">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="C2019">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="D2019">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="E2019">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="F2019">
+        <v>51262300</v>
+      </c>
+      <c r="G2019">
+        <v>0</v>
+      </c>
+      <c r="H2019">
         <v>0</v>
       </c>
     </row>
@@ -53579,31 +53631,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C2">
-        <v>24.93771330521457</v>
+        <v>24.91407335153066</v>
       </c>
       <c r="D2">
-        <v>23.94000053405762</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="E2">
         <v>24</v>
       </c>
       <c r="F2">
-        <v>13.79860253856233</v>
+        <v>13.812176977444</v>
       </c>
       <c r="G2">
-        <v>1.159999966621399</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="H2">
         <v>13.5</v>
       </c>
       <c r="I2">
-        <v>35.71249866485596</v>
+        <v>35.67499923706055</v>
       </c>
       <c r="J2">
-        <v>22.21249866485596</v>
+        <v>22.17499923706055</v>
       </c>
       <c r="K2">
         <v>62.54999923706055</v>
@@ -53614,10 +53666,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C3">
-        <v>25.45658236369491</v>
+        <v>25.43247772308715</v>
       </c>
       <c r="D3">
         <v>24.38999938964844</v>
@@ -53626,19 +53678,19 @@
         <v>26.5</v>
       </c>
       <c r="F3">
-        <v>13.97325325780703</v>
+        <v>13.98728613468266</v>
       </c>
       <c r="G3">
-        <v>1.159999966621399</v>
+        <v>1.110000014305115</v>
       </c>
       <c r="H3">
-        <v>13.95250010490417</v>
+        <v>13.9225001335144</v>
       </c>
       <c r="I3">
-        <v>36.27249908447266</v>
+        <v>36.24749851226807</v>
       </c>
       <c r="J3">
-        <v>22.31999897956848</v>
+        <v>22.32499837875366</v>
       </c>
       <c r="K3">
         <v>62.86999893188477</v>
@@ -53649,31 +53701,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C4">
-        <v>24.33827876287793</v>
+        <v>24.31522298615326</v>
       </c>
       <c r="D4">
-        <v>23.28999996185303</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="E4">
         <v>26</v>
       </c>
       <c r="F4">
-        <v>13.57194399424128</v>
+        <v>13.58495880272021</v>
       </c>
       <c r="G4">
-        <v>1.080000042915344</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="H4">
-        <v>13.10249996185303</v>
+        <v>13.03499984741211</v>
       </c>
       <c r="I4">
-        <v>34.77249908447266</v>
+        <v>34.7549991607666</v>
       </c>
       <c r="J4">
-        <v>21.66999912261963</v>
+        <v>21.71999931335449</v>
       </c>
       <c r="K4">
         <v>61.27000045776367</v>
@@ -53684,31 +53736,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C5">
-        <v>24.88409719219993</v>
+        <v>24.86052028718151</v>
       </c>
       <c r="D5">
-        <v>23.80499935150146</v>
+        <v>23.79999923706055</v>
       </c>
       <c r="E5">
         <v>26.5</v>
       </c>
       <c r="F5">
-        <v>13.80379994897978</v>
+        <v>13.81725549286995</v>
       </c>
       <c r="G5">
-        <v>1.110000014305115</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="H5">
-        <v>13.52499985694885</v>
+        <v>13.49499988555908</v>
       </c>
       <c r="I5">
-        <v>35.53749847412109</v>
+        <v>35.5074987411499</v>
       </c>
       <c r="J5">
-        <v>22.01249861717224</v>
+        <v>22.01249885559082</v>
       </c>
       <c r="K5">
         <v>62.40999984741211</v>
@@ -53719,31 +53771,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C6">
-        <v>10280863.78968254</v>
+        <v>10315628.88999009</v>
       </c>
       <c r="D6">
-        <v>7546700</v>
+        <v>7555950</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16603992.92889357</v>
+        <v>16633479.92239116</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2276625</v>
+        <v>2277400</v>
       </c>
       <c r="I6">
-        <v>12863250</v>
+        <v>12892725</v>
       </c>
       <c r="J6">
-        <v>10586625</v>
+        <v>10615325</v>
       </c>
       <c r="K6">
         <v>282174900</v>
@@ -53754,7 +53806,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -53789,7 +53841,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C8">
         <v>0</v>
